--- a/TP_FINAL_OSCILADORE/Ejercicio_158.xlsx
+++ b/TP_FINAL_OSCILADORE/Ejercicio_158.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxir\OneDrive\Documentos\4 AÑO\Simulacion\TP_FINAL\FinalSIM_158_OsciladorVanderPol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxir\OneDrive\Documentos\4 AÑO\Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7C07F66-0FAE-4A1E-A007-DABAC3BDFA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D9A163-70E9-40E7-AE2D-D1F5D0C9EDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{352E9F09-7876-47FC-8C28-BF616BA38EA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{352E9F09-7876-47FC-8C28-BF616BA38EA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>h</t>
   </si>
@@ -178,12 +178,56 @@
       <t>u(1-(x1)^2)*x2-x1</t>
     </r>
   </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>x(i+1)</t>
+  </si>
+  <si>
+    <t>x1(i+1)</t>
+  </si>
+  <si>
+    <t>x2(i+1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -221,8 +265,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +320,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FFB7DEE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -385,11 +446,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -454,6 +530,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2018,6 +2111,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>562735</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50108C35-22B0-4022-8CE5-4318B37DA16E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="3686175"/>
+          <a:ext cx="5449060" cy="3982006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>353430</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B19A0D4-2326-B656-4BD2-9C55955D9CE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="3752850"/>
+          <a:ext cx="7201905" cy="2010056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>162424</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BDB066-77C0-EE65-2108-5F26237D97A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="3314700"/>
+          <a:ext cx="3572374" cy="476316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2571,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCDB209-28CE-4D69-BB37-A3FACEB746F9}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3055,14 +3285,708 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72199BD9-4337-4D5A-9C2C-EBF3E77203EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A9:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:P19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="D9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <f>$B$17*(G10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="30">
+        <f>$B$17*(2*(1-F10^2)*G10-F10)</f>
+        <v>-0.05</v>
+      </c>
+      <c r="J10" s="30">
+        <f>$B$17*(G10+I10/2)</f>
+        <v>-2.5000000000000005E-3</v>
+      </c>
+      <c r="K10" s="31">
+        <f>$B$17*(2*(1-(F10+H10/2)^2)*(G10+I10/2)-(F10+H10/2))</f>
+        <v>-5.3749999999999999E-2</v>
+      </c>
+      <c r="L10" s="32">
+        <f>$B$17*(G10+K10/2)</f>
+        <v>-2.6875000000000002E-3</v>
+      </c>
+      <c r="M10" s="31">
+        <f>$B$17*(2*(1-(F10+J10/2)^2)*(G10+K10/2)-(F10+J10/2))</f>
+        <v>-5.3912960351562504E-2</v>
+      </c>
+      <c r="N10" s="29">
+        <f>$B$17*(G10+M10)</f>
+        <v>-5.3912960351562506E-3</v>
+      </c>
+      <c r="O10" s="31">
+        <f>$B$17*(2*(1-(F10+L10)^2)*(G10+M10)-(F10+L10))</f>
+        <v>-5.7847094389967338E-2</v>
+      </c>
+      <c r="P10" s="29">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="30">
+        <f>F10+1/6*(H10+2*J10+2*L10+N10)</f>
+        <v>0.49737228399414063</v>
+      </c>
+      <c r="R10" s="29">
+        <f>G10+1/6*(I10+2*K10+2*M10+O10)</f>
+        <v>-5.3862169182182049E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="27">
+        <v>2</v>
+      </c>
+      <c r="E11" s="29">
+        <f>P10</f>
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="30">
+        <f>Q10</f>
+        <v>0.49737228399414063</v>
+      </c>
+      <c r="G11" s="29">
+        <f>R10</f>
+        <v>-5.3862169182182049E-2</v>
+      </c>
+      <c r="H11" s="29">
+        <f>$B$17*(G11)</f>
+        <v>-5.3862169182182056E-3</v>
+      </c>
+      <c r="I11" s="30">
+        <f>$B$17*(2*(1-F11^2)*G11-F11)</f>
+        <v>-5.7844786291069594E-2</v>
+      </c>
+      <c r="J11" s="30">
+        <f>$B$17*(G11+I11/2)</f>
+        <v>-8.2784562327716856E-3</v>
+      </c>
+      <c r="K11" s="31">
+        <f>$B$17*(2*(1-(F11+H11/2)^2)*(G11+I11/2)-(F11+H11/2))</f>
+        <v>-6.197322958195875E-2</v>
+      </c>
+      <c r="L11" s="32">
+        <f>$B$17*(G11+K11/2)</f>
+        <v>-8.484878397316143E-3</v>
+      </c>
+      <c r="M11" s="31">
+        <f>$B$17*(2*(1-(F11+J11/2)^2)*(G11+K11/2)-(F11+J11/2))</f>
+        <v>-6.216467950857299E-2</v>
+      </c>
+      <c r="N11" s="29">
+        <f>$B$17*(G11+M11)</f>
+        <v>-1.1602684869075505E-2</v>
+      </c>
+      <c r="O11" s="31">
+        <f>$B$17*(2*(1-(F11+L11)^2)*(G11+M11)-(F11+L11))</f>
+        <v>-6.654777409976248E-2</v>
+      </c>
+      <c r="P11" s="29">
+        <f>P10+$B$17</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q11" s="30">
+        <f>F11+1/6*(H11+2*J11+2*L11+N11)</f>
+        <v>0.48895302215289571</v>
+      </c>
+      <c r="R11" s="29">
+        <f>G11+1/6*(I11+2*K11+2*M11+O11)</f>
+        <v>-0.1159735656108313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="27">
+        <v>3</v>
+      </c>
+      <c r="E12" s="29">
+        <f>P11</f>
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="30">
+        <f>Q11</f>
+        <v>0.48895302215289571</v>
+      </c>
+      <c r="G12" s="29">
+        <f>R11</f>
+        <v>-0.1159735656108313</v>
+      </c>
+      <c r="H12" s="29">
+        <f>$B$17*(G12)</f>
+        <v>-1.1597356561083131E-2</v>
+      </c>
+      <c r="I12" s="30">
+        <f>$B$17*(2*(1-F12^2)*G12-F12)</f>
+        <v>-6.6544737955439068E-2</v>
+      </c>
+      <c r="J12" s="30">
+        <f>$B$17*(G12+I12/2)</f>
+        <v>-1.4924593458855086E-2</v>
+      </c>
+      <c r="K12" s="31">
+        <f>$B$17*(2*(1-(F12+H12/2)^2)*(G12+I12/2)-(F12+H12/2))</f>
+        <v>-7.1196683227265384E-2</v>
+      </c>
+      <c r="L12" s="32">
+        <f>$B$17*(G12+K12/2)</f>
+        <v>-1.5157190722446402E-2</v>
+      </c>
+      <c r="M12" s="31">
+        <f>$B$17*(2*(1-(F12+J12/2)^2)*(G12+K12/2)-(F12+J12/2))</f>
+        <v>-7.1435570333477694E-2</v>
+      </c>
+      <c r="N12" s="29">
+        <f>$B$17*(G12+M12)</f>
+        <v>-1.8740913594430902E-2</v>
+      </c>
+      <c r="O12" s="31">
+        <f>$B$17*(2*(1-(F12+L12)^2)*(G12+M12)-(F12+L12))</f>
+        <v>-7.6447396439266513E-2</v>
+      </c>
+      <c r="P12" s="29">
+        <f t="shared" ref="P12:P19" si="0">P11+$B$17</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Q12" s="30">
+        <f>F12+1/6*(H12+2*J12+2*L12+N12)</f>
+        <v>0.47386938239987619</v>
+      </c>
+      <c r="R12" s="29">
+        <f>G12+1/6*(I12+2*K12+2*M12+O12)</f>
+        <v>-0.18734967253019658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D13" s="27">
+        <v>4</v>
+      </c>
+      <c r="E13" s="29">
+        <f t="shared" ref="E13:E19" si="1">P12</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" ref="F13:F19" si="2">Q12</f>
+        <v>0.47386938239987619</v>
+      </c>
+      <c r="G13" s="29">
+        <f t="shared" ref="G13:G19" si="3">R12</f>
+        <v>-0.18734967253019658</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" ref="H13:H19" si="4">$B$17*(G13)</f>
+        <v>-1.8734967253019659E-2</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" ref="I13:I19" si="5">$B$17*(2*(1-F13^2)*G13-F13)</f>
+        <v>-7.644291683448512E-2</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" ref="J13:J19" si="6">$B$17*(G13+I13/2)</f>
+        <v>-2.2557113094743914E-2</v>
+      </c>
+      <c r="K13" s="31">
+        <f t="shared" ref="K13:K19" si="7">$B$17*(2*(1-(F13+H13/2)^2)*(G13+I13/2)-(F13+H13/2))</f>
+        <v>-8.1830479765750308E-2</v>
+      </c>
+      <c r="L13" s="32">
+        <f t="shared" ref="L13:L19" si="8">$B$17*(G13+K13/2)</f>
+        <v>-2.2826491241307173E-2</v>
+      </c>
+      <c r="M13" s="31">
+        <f t="shared" ref="M13:M19" si="9">$B$17*(2*(1-(F13+J13/2)^2)*(G13+K13/2)-(F13+J13/2))</f>
+        <v>-8.2142770921361935E-2</v>
+      </c>
+      <c r="N13" s="29">
+        <f t="shared" ref="N13:N19" si="10">$B$17*(G13+M13)</f>
+        <v>-2.6949244345155856E-2</v>
+      </c>
+      <c r="O13" s="31">
+        <f t="shared" ref="O13:O19" si="11">$B$17*(2*(1-(F13+L13)^2)*(G13+M13)-(F13+L13))</f>
+        <v>-8.8037685993616291E-2</v>
+      </c>
+      <c r="P13" s="29">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q13" s="30">
+        <f t="shared" ref="Q13:Q19" si="12">F13+1/6*(H13+2*J13+2*L13+N13)</f>
+        <v>0.45112747902149658</v>
+      </c>
+      <c r="R13" s="29">
+        <f t="shared" ref="R13:R19" si="13">G13+1/6*(I13+2*K13+2*M13+O13)</f>
+        <v>-0.26942085656391757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="27">
+        <v>5</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="2"/>
+        <v>0.45112747902149658</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="3"/>
+        <v>-0.26942085656391757</v>
+      </c>
+      <c r="H14" s="29">
+        <f t="shared" si="4"/>
+        <v>-2.6942085656391758E-2</v>
+      </c>
+      <c r="I14" s="30">
+        <f t="shared" si="5"/>
+        <v>-8.8030628080582707E-2</v>
+      </c>
+      <c r="J14" s="30">
+        <f t="shared" si="6"/>
+        <v>-3.1343617060420895E-2</v>
+      </c>
+      <c r="K14" s="31">
+        <f t="shared" si="7"/>
+        <v>-9.4445567066889669E-2</v>
+      </c>
+      <c r="L14" s="32">
+        <f t="shared" si="8"/>
+        <v>-3.166436400973624E-2</v>
+      </c>
+      <c r="M14" s="31">
+        <f t="shared" si="9"/>
+        <v>-9.486579774144821E-2</v>
+      </c>
+      <c r="N14" s="29">
+        <f t="shared" si="10"/>
+        <v>-3.6428665430536578E-2</v>
+      </c>
+      <c r="O14" s="31">
+        <f t="shared" si="11"/>
+        <v>-0.10198444564362573</v>
+      </c>
+      <c r="P14" s="29">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="30">
+        <f t="shared" si="12"/>
+        <v>0.41956302681695612</v>
+      </c>
+      <c r="R14" s="29">
+        <f t="shared" si="13"/>
+        <v>-0.36419382378739829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="27">
+        <v>6</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="2"/>
+        <v>0.41956302681695612</v>
+      </c>
+      <c r="G15" s="29">
+        <f t="shared" si="3"/>
+        <v>-0.36419382378739829</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="4"/>
+        <v>-3.6419382378739831E-2</v>
+      </c>
+      <c r="I15" s="30">
+        <f t="shared" si="5"/>
+        <v>-0.10197303144070041</v>
+      </c>
+      <c r="J15" s="30">
+        <f t="shared" si="6"/>
+        <v>-4.1518033950774851E-2</v>
+      </c>
+      <c r="K15" s="31">
+        <f t="shared" si="7"/>
+        <v>-0.10979557798281109</v>
+      </c>
+      <c r="L15" s="32">
+        <f t="shared" si="8"/>
+        <v>-4.1909161277880386E-2</v>
+      </c>
+      <c r="M15" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.11036786874899773</v>
+      </c>
+      <c r="N15" s="29">
+        <f t="shared" si="10"/>
+        <v>-4.7456169253639602E-2</v>
+      </c>
+      <c r="O15" s="31">
+        <f t="shared" si="11"/>
+        <v>-0.11914109555248412</v>
+      </c>
+      <c r="P15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q15" s="30">
+        <f t="shared" si="12"/>
+        <v>0.37777470313534112</v>
+      </c>
+      <c r="R15" s="29">
+        <f t="shared" si="13"/>
+        <v>-0.47443399386353197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D16" s="27">
+        <v>7</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="30">
+        <f t="shared" si="2"/>
+        <v>0.37777470313534112</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" si="3"/>
+        <v>-0.47443399386353197</v>
+      </c>
+      <c r="H16" s="29">
+        <f t="shared" si="4"/>
+        <v>-4.7443399386353197E-2</v>
+      </c>
+      <c r="I16" s="30">
+        <f t="shared" si="5"/>
+        <v>-0.11912262045395805</v>
+      </c>
+      <c r="J16" s="30">
+        <f t="shared" si="6"/>
+        <v>-5.3399530409051099E-2</v>
+      </c>
+      <c r="K16" s="31">
+        <f t="shared" si="7"/>
+        <v>-0.12881672196856675</v>
+      </c>
+      <c r="L16" s="32">
+        <f t="shared" si="8"/>
+        <v>-5.3884235484781544E-2</v>
+      </c>
+      <c r="M16" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.12959311145128122</v>
+      </c>
+      <c r="N16" s="29">
+        <f t="shared" si="10"/>
+        <v>-6.0402710531481323E-2</v>
+      </c>
+      <c r="O16" s="31">
+        <f t="shared" si="11"/>
+        <v>-0.14052137089900291</v>
+      </c>
+      <c r="P16" s="29">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q16" s="30">
+        <f t="shared" si="12"/>
+        <v>0.3240390961844245</v>
+      </c>
+      <c r="R16" s="29">
+        <f t="shared" si="13"/>
+        <v>-0.60384460356230818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="27">
+        <v>8</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="30">
+        <f t="shared" si="2"/>
+        <v>0.3240390961844245</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="3"/>
+        <v>-0.60384460356230818</v>
+      </c>
+      <c r="H17" s="29">
+        <f t="shared" si="4"/>
+        <v>-6.0384460356230824E-2</v>
+      </c>
+      <c r="I17" s="30">
+        <f t="shared" si="5"/>
+        <v>-0.14049193232620602</v>
+      </c>
+      <c r="J17" s="30">
+        <f t="shared" si="6"/>
+        <v>-6.7409056972541112E-2</v>
+      </c>
+      <c r="K17" s="31">
+        <f t="shared" si="7"/>
+        <v>-0.15256179828616023</v>
+      </c>
+      <c r="L17" s="32">
+        <f t="shared" si="8"/>
+        <v>-6.8012550270538832E-2</v>
+      </c>
+      <c r="M17" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.1535924355585728</v>
+      </c>
+      <c r="N17" s="29">
+        <f t="shared" si="10"/>
+        <v>-7.5743703912088109E-2</v>
+      </c>
+      <c r="O17" s="31">
+        <f t="shared" si="11"/>
+        <v>-0.16716012460734697</v>
+      </c>
+      <c r="P17" s="29">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="Q17" s="30">
+        <f t="shared" si="12"/>
+        <v>0.25621053305867802</v>
+      </c>
+      <c r="R17" s="29">
+        <f t="shared" si="13"/>
+        <v>-0.75717135766614474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D18" s="27">
+        <v>9</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F18" s="30">
+        <f t="shared" si="2"/>
+        <v>0.25621053305867802</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="3"/>
+        <v>-0.75717135766614474</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="4"/>
+        <v>-7.5717135766614485E-2</v>
+      </c>
+      <c r="I18" s="30">
+        <f t="shared" si="5"/>
+        <v>-0.16711459816446506</v>
+      </c>
+      <c r="J18" s="30">
+        <f t="shared" si="6"/>
+        <v>-8.4072865674837738E-2</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="7"/>
+        <v>-0.18196414619210946</v>
+      </c>
+      <c r="L18" s="32">
+        <f t="shared" si="8"/>
+        <v>-8.4815343076219962E-2</v>
+      </c>
+      <c r="M18" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.18326704411715578</v>
+      </c>
+      <c r="N18" s="29">
+        <f t="shared" si="10"/>
+        <v>-9.4043840178330063E-2</v>
+      </c>
+      <c r="O18" s="31">
+        <f t="shared" si="11"/>
+        <v>-0.1997018771334319</v>
+      </c>
+      <c r="P18" s="29">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="Q18" s="30">
+        <f t="shared" si="12"/>
+        <v>0.17162096748416805</v>
+      </c>
+      <c r="R18" s="29">
+        <f t="shared" si="13"/>
+        <v>-0.94005116698554925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="D19" s="28">
+        <v>10</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F19" s="30">
+        <f t="shared" si="2"/>
+        <v>0.17162096748416805</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="3"/>
+        <v>-0.94005116698554925</v>
+      </c>
+      <c r="H19" s="29">
+        <f t="shared" si="4"/>
+        <v>-9.4005116698554936E-2</v>
+      </c>
+      <c r="I19" s="30">
+        <f t="shared" si="5"/>
+        <v>-0.19963472251526226</v>
+      </c>
+      <c r="J19" s="30">
+        <f t="shared" si="6"/>
+        <v>-0.10398685282431804</v>
+      </c>
+      <c r="K19" s="31">
+        <f t="shared" si="7"/>
+        <v>-0.21720576734454822</v>
+      </c>
+      <c r="L19" s="32">
+        <f t="shared" si="8"/>
+        <v>-0.10486540506578233</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.2186921593448774</v>
+      </c>
+      <c r="N19" s="29">
+        <f t="shared" si="10"/>
+        <v>-0.11587433263304266</v>
+      </c>
+      <c r="O19" s="31">
+        <f t="shared" si="11"/>
+        <v>-0.23739147874578348</v>
+      </c>
+      <c r="P19" s="29">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="Q19" s="30">
+        <f t="shared" si="12"/>
+        <v>6.7023639965534995E-2</v>
+      </c>
+      <c r="R19" s="29">
+        <f t="shared" si="13"/>
+        <v>-1.1581881760921988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <f>E27*F27</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>